--- a/biology/Botanique/Joseph-Donat_Surian/Joseph-Donat_Surian.xlsx
+++ b/biology/Botanique/Joseph-Donat_Surian/Joseph-Donat_Surian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph-Donat Surian est un médecin, chimiste, botaniste et explorateur français né à Marseille et mort en 1691.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en médecine, Joseph-Donat Surian est nommé par Michel Bégon, pour ses connaissances étendues en botanique et chimie, à la tête d'une expédition d'exploration de la flore des Antilles pour le compte du roi Louis XIV. Il s'attache Charles Plumier pour soutenir les questions botaniques. L'excursion a lieu de 1689 à 1690 et les conduit à la Martinique et à Saint-Domingue.
 Surian meurt l'année suivante son retour.
@@ -543,24 +557,26 @@
           <t>Noms des plantes antillaises</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C'est sans doute en sa qualité de pharmacien-herboriste[1] que Surian eut la particularité d'utiliser directement les noms indigènes pour nommer les plantes des Antilles. Ils constitua ainsi un véritable florilège vernaculaire dont voici une liste non exhaustive :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C'est sans doute en sa qualité de pharmacien-herboriste que Surian eut la particularité d'utiliser directement les noms indigènes pour nommer les plantes des Antilles. Ils constitua ainsi un véritable florilège vernaculaire dont voici une liste non exhaustive :
 Bois de Comboye : une espèce de Myrthe dans l'herbier antillais de Surian,
 Bois Gris : deux espèces de Mimosa,
 Bois de lessive : nom d'une plante du genre Anavinga actuel Casearia (Salicaceae),
 Bois-pissenlit : nom d'un Tecoma (Bignoniaceae),
-Bois plié batard : nom d'un Brunfelsia (Solanaceae) [2].
+Bois plié batard : nom d'un Brunfelsia (Solanaceae) .
 Chahuiyou : nom caraïbe d'une Graminée du genre Pharus,
 Chebetiba : nom caraïbe d'une plante du genre Cupania (en) (Sapindaceae),
 Chiquichikiti : nom caraïbe d'un Cacalia (Asteraceae),
-Chiripiba : nom caraïbe d'un Croton (Euphorbiaceae)[3].
+Chiripiba : nom caraïbe d'un Croton (Euphorbiaceae).
 Timahué : nom caraïbe du Génipayer (Rubiaceae),
 Timaocomahen : nom de plusieurs arbres dont l'Heisteria (Olacaceae),
 Tisloué : nom caraïbe dont Pierre Turpin fit le genre Cypselea (Aizoaceae),
 Tonolomibi : nom caraïbe de plusieurs Duranta (Verbenaceae) des Antilles,
 Tonoulou : nom d'une fougère du genre Asplenium,
-Tounouloumibi : nom d'un arbre des Antilles que Sébastien Vaillant rapprocha d'un Érable[4].</t>
+Tounouloumibi : nom d'un arbre des Antilles que Sébastien Vaillant rapprocha d'un Érable.</t>
         </is>
       </c>
     </row>
@@ -588,7 +604,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Plumier a nommé le genre Suriana de la famille des plantes des Surianaceae en son honneur. Carl von Linné a repris plus tard ce nom.
 </t>
